--- a/data/15-12-2025-rings-export.xlsx
+++ b/data/15-12-2025-rings-export.xlsx
@@ -260,7 +260,7 @@
 &lt;strong class="text-green-600"&gt;BTS STATUS:&lt;/strong&gt; ON AIR&lt;br /&gt;</t>
   </si>
   <si>
-    <t>MAAN RING</t>
+    <t>BBU_RINGS</t>
   </si>
   <si>
     <t xml:space="preserve">[
@@ -1084,9 +1084,6 @@
 &lt;strong class="text-red-600"&gt;SPEC STATUS:&lt;/strong&gt; NOT ISSUED&lt;br /&gt;</t>
   </si>
   <si>
-    <t>Linear</t>
-  </si>
-  <si>
     <t xml:space="preserve">[
   {
     "order": 0,
@@ -1141,10 +1138,16 @@
     <t>linear_bts</t>
   </si>
   <si>
+    <t>Linear</t>
+  </si>
+  <si>
     <t>104775fe-4c27-44d9-a14b-0c38e21a5786</t>
   </si>
   <si>
     <t>MAAN-06</t>
+  </si>
+  <si>
+    <t>MAAN RING</t>
   </si>
   <si>
     <t>Kolkata SSA</t>
@@ -1296,9 +1299,6 @@
 &lt;strong class="text-green-600"&gt;SPEC STATUS:&lt;/strong&gt; ISSUED Vide: TP/Inst. Prg/02_25/20_Revised DATED: 06-03-2025&lt;br /&gt;
 &lt;strong class="text-green-600"&gt;BTS STATU:&lt;/strong&gt; On Air&lt;br /&gt;
 &lt;strong class="text-amber-600"&gt;Included Sites:&lt;/strong&gt; Ghospara Darir Road, Mollikpur Sitala Mandir, Narendrapur-III, Sonarpur South, Subhasgram, Subhasgram Panchghara, Subhashgram Petua&lt;br /&gt;</t>
-  </si>
-  <si>
-    <t>Point-to-Point Ring</t>
   </si>
   <si>
     <t xml:space="preserve">[
@@ -2127,7 +2127,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>14</v>
@@ -2156,7 +2156,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -2185,7 +2185,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>14</v>
@@ -2214,7 +2214,7 @@
         <v>68</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -2243,7 +2243,7 @@
         <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>14</v>
@@ -2272,7 +2272,7 @@
         <v>76</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
@@ -2301,7 +2301,7 @@
         <v>80</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>14</v>
@@ -2330,7 +2330,7 @@
         <v>84</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
@@ -2359,7 +2359,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
@@ -2388,7 +2388,7 @@
         <v>91</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -2417,7 +2417,7 @@
         <v>95</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>14</v>
@@ -2446,7 +2446,7 @@
         <v>99</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -2475,7 +2475,7 @@
         <v>56</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>14</v>
@@ -2504,7 +2504,7 @@
         <v>84</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>14</v>
@@ -2533,7 +2533,7 @@
         <v>84</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>14</v>
@@ -2562,7 +2562,7 @@
         <v>113</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>14</v>
@@ -2591,7 +2591,7 @@
         <v>117</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>14</v>
@@ -2620,7 +2620,7 @@
         <v>121</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>14</v>
@@ -2649,7 +2649,7 @@
         <v>126</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -2678,7 +2678,7 @@
         <v>130</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>14</v>
@@ -2693,21 +2693,21 @@
         <v>106</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>14</v>
@@ -2722,19 +2722,19 @@
         <v>20</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>14</v>
@@ -2759,10 +2759,10 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>15</v>
@@ -2774,22 +2774,22 @@
         <v>20</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
@@ -2798,25 +2798,25 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>15</v>
@@ -2831,17 +2831,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
@@ -2853,22 +2853,22 @@
         <v>28</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>15</v>
@@ -2883,14 +2883,14 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>14</v>
@@ -2908,16 +2908,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>14</v>
